--- a/assets/files/downloads/acq/Contract-Writing-Federal-Business-Lifecycle.xlsx
+++ b/assets/files/downloads/acq/Contract-Writing-Federal-Business-Lifecycle.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rkcho.LAPTOP-0DIUF57F\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06BFA1C2-5C5F-4E76-B706-E0AB65401407}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="701" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="701" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="12" r:id="rId1"/>
@@ -24,23 +30,17 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Jeffrey Callaway</author>
   </authors>
   <commentList>
-    <comment ref="C13" authorId="0">
+    <comment ref="C13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -1684,7 +1684,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2552,7 +2552,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="25">
     <dxf>
@@ -3102,7 +3102,7 @@
         <xdr:cNvPr id="2" name="Title 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8DFA2E88-15CC-4E47-8AB1-5AC450B9E9DD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DFA2E88-15CC-4E47-8AB1-5AC450B9E9DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3340,39 +3340,39 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table143" displayName="Table143" ref="B2:C9" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table143" displayName="Table143" ref="B2:C9" totalsRowShown="0" headerRowDxfId="24" dataDxfId="22" headerRowBorderDxfId="23" tableBorderDxfId="21" totalsRowBorderDxfId="20">
   <tableColumns count="2">
-    <tableColumn id="1" name="Template Field" dataDxfId="19"/>
-    <tableColumn id="2" name="Field Description" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Template Field" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Field Description" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D24" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13" headerRowCellStyle="Normal 3">
-  <autoFilter ref="A1:D24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A1:D24" totalsRowShown="0" headerRowDxfId="17" dataDxfId="15" headerRowBorderDxfId="16" tableBorderDxfId="14" totalsRowBorderDxfId="13" headerRowCellStyle="Normal 3">
+  <autoFilter ref="A1:D24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Refreshed Function" dataDxfId="12" dataCellStyle="Normal 3"/>
-    <tableColumn id="2" name="Refreshed Activity" dataDxfId="11" dataCellStyle="Normal 3"/>
-    <tableColumn id="3" name="Refreshed Activity Description" dataDxfId="10" dataCellStyle="Normal 3"/>
-    <tableColumn id="4" name="Comments" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Refreshed Function" dataDxfId="12" dataCellStyle="Normal 3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Refreshed Activity" dataDxfId="11" dataCellStyle="Normal 3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Refreshed Activity Description" dataDxfId="10" dataCellStyle="Normal 3"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Comments" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:G115" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
-  <autoFilter ref="A1:G115"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table2" displayName="Table2" ref="A1:G115" totalsRowShown="0" headerRowDxfId="8" tableBorderDxfId="7">
+  <autoFilter ref="A1:G115" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Function Name" dataDxfId="6"/>
-    <tableColumn id="2" name="Activity  Name " dataDxfId="5"/>
-    <tableColumn id="3" name="Business Capability ID" dataDxfId="4"/>
-    <tableColumn id="4" name="(I)input_x000a_(P)process_x000a_(O)output" dataDxfId="3"/>
-    <tableColumn id="5" name="Business Capability Statement" dataDxfId="2"/>
-    <tableColumn id="6" name="Authoritative Reference" dataDxfId="1"/>
-    <tableColumn id="7" name="Other Sources" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Function Name" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Activity  Name " dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Business Capability ID" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="(I)input_x000a_(P)process_x000a_(O)output" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Business Capability Statement" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Authoritative Reference" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Other Sources" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3633,21 +3633,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3656,30 +3656,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.26953125" customWidth="1"/>
-    <col min="2" max="2" width="75.453125" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" customWidth="1"/>
+    <col min="2" max="2" width="75.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="93"/>
       <c r="B1" s="94"/>
     </row>
-    <row r="2" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="93" t="s">
         <v>401</v>
       </c>
       <c r="B2" s="94"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="66" t="s">
         <v>360</v>
       </c>
@@ -3687,7 +3687,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="68" t="s">
         <v>362</v>
       </c>
@@ -3695,7 +3695,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="68" t="s">
         <v>363</v>
       </c>
@@ -3703,7 +3703,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="68" t="s">
         <v>365</v>
       </c>
@@ -3711,7 +3711,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="71" t="s">
         <v>367</v>
       </c>
@@ -3720,7 +3720,7 @@
       </c>
       <c r="C7" s="88"/>
     </row>
-    <row r="8" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="68" t="s">
         <v>369</v>
       </c>
@@ -3729,7 +3729,7 @@
       </c>
       <c r="C8" s="88"/>
     </row>
-    <row r="9" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="68" t="s">
         <v>371</v>
       </c>
@@ -3738,7 +3738,7 @@
       </c>
       <c r="C9" s="88"/>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="72" t="s">
         <v>373</v>
       </c>
@@ -3758,28 +3758,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.54296875" customWidth="1"/>
-    <col min="2" max="2" width="46.26953125" customWidth="1"/>
-    <col min="3" max="3" width="80.26953125" customWidth="1"/>
+    <col min="1" max="1" width="34.5703125" customWidth="1"/>
+    <col min="2" max="2" width="46.28515625" customWidth="1"/>
+    <col min="3" max="3" width="80.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="95" t="s">
         <v>375</v>
       </c>
       <c r="B1" s="96"/>
       <c r="C1" s="97"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
         <v>376</v>
       </c>
@@ -3790,7 +3790,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="77" t="s">
         <v>379</v>
       </c>
@@ -3801,7 +3801,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="77" t="s">
         <v>381</v>
       </c>
@@ -3812,7 +3812,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="145" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="165" x14ac:dyDescent="0.25">
       <c r="A5" s="77" t="s">
         <v>383</v>
       </c>
@@ -3823,7 +3823,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="58" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="77" t="s">
         <v>385</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="174" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="195" x14ac:dyDescent="0.25">
       <c r="A7" s="77" t="s">
         <v>388</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="77" t="s">
         <v>390</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="77" t="s">
         <v>393</v>
       </c>
@@ -3880,24 +3880,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.7265625" style="26" customWidth="1"/>
-    <col min="2" max="2" width="36.26953125" style="26" customWidth="1"/>
-    <col min="3" max="3" width="90.26953125" style="26" customWidth="1"/>
-    <col min="4" max="4" width="79.26953125" style="26" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="26"/>
+    <col min="1" max="1" width="33.7109375" style="26" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" style="26" customWidth="1"/>
+    <col min="3" max="3" width="90.28515625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="79.28515625" style="26" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="65" customFormat="1" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="65" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
         <v>63</v>
       </c>
@@ -3911,7 +3911,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="78" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="79.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="37" t="s">
         <v>222</v>
       </c>
@@ -3923,7 +3923,7 @@
       </c>
       <c r="D2" s="29"/>
     </row>
-    <row r="3" spans="1:4" ht="47" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="48" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="34" t="s">
         <v>224</v>
       </c>
@@ -3935,7 +3935,7 @@
       </c>
       <c r="D3" s="29"/>
     </row>
-    <row r="4" spans="1:4" s="29" customFormat="1" ht="108.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="29" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>224</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>224</v>
       </c>
@@ -3958,7 +3958,7 @@
       </c>
       <c r="D5" s="29"/>
     </row>
-    <row r="6" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>224</v>
       </c>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="D6" s="29"/>
     </row>
-    <row r="7" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>224</v>
       </c>
@@ -3982,7 +3982,7 @@
       </c>
       <c r="D7" s="29"/>
     </row>
-    <row r="8" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>224</v>
       </c>
@@ -3994,7 +3994,7 @@
       </c>
       <c r="D8" s="29"/>
     </row>
-    <row r="9" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>224</v>
       </c>
@@ -4006,7 +4006,7 @@
       </c>
       <c r="D9" s="29"/>
     </row>
-    <row r="10" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
         <v>224</v>
       </c>
@@ -4018,7 +4018,7 @@
       </c>
       <c r="D10" s="29"/>
     </row>
-    <row r="11" spans="1:4" ht="31.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="32.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>235</v>
       </c>
@@ -4030,7 +4030,7 @@
       </c>
       <c r="D11" s="29"/>
     </row>
-    <row r="12" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="30" t="s">
         <v>235</v>
       </c>
@@ -4042,7 +4042,7 @@
       </c>
       <c r="D12" s="29"/>
     </row>
-    <row r="13" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
         <v>235</v>
       </c>
@@ -4054,7 +4054,7 @@
       </c>
       <c r="D13" s="29"/>
     </row>
-    <row r="14" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="30" t="s">
         <v>235</v>
       </c>
@@ -4066,7 +4066,7 @@
       </c>
       <c r="D14" s="29"/>
     </row>
-    <row r="15" spans="1:4" ht="77.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A15" s="30" t="s">
         <v>235</v>
       </c>
@@ -4078,7 +4078,7 @@
       </c>
       <c r="D15" s="29"/>
     </row>
-    <row r="16" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
         <v>235</v>
       </c>
@@ -4090,7 +4090,7 @@
       </c>
       <c r="D16" s="29"/>
     </row>
-    <row r="17" spans="1:4" ht="78" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" ht="95.25" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="34" t="s">
         <v>242</v>
       </c>
@@ -4102,7 +4102,7 @@
       </c>
       <c r="D17" s="29"/>
     </row>
-    <row r="18" spans="1:4" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>242</v>
       </c>
@@ -4114,7 +4114,7 @@
       </c>
       <c r="D18" s="29"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>242</v>
       </c>
@@ -4126,7 +4126,7 @@
       </c>
       <c r="D19" s="29"/>
     </row>
-    <row r="20" spans="1:4" ht="31.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>242</v>
       </c>
@@ -4138,7 +4138,7 @@
       </c>
       <c r="D20" s="29"/>
     </row>
-    <row r="21" spans="1:4" ht="47" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" ht="48" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A21" s="34" t="s">
         <v>247</v>
       </c>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="D21" s="29"/>
     </row>
-    <row r="22" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A22" s="30" t="s">
         <v>247</v>
       </c>
@@ -4162,7 +4162,7 @@
       </c>
       <c r="D22" s="29"/>
     </row>
-    <row r="23" spans="1:4" ht="62" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
         <v>247</v>
       </c>
@@ -4174,7 +4174,7 @@
       </c>
       <c r="D23" s="29"/>
     </row>
-    <row r="24" spans="1:4" ht="31" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>247</v>
       </c>
@@ -4198,27 +4198,27 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G115"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="25.26953125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.453125" style="22" customWidth="1"/>
-    <col min="5" max="5" width="70.6328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="25.26953125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="42.453125" style="6" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="4"/>
+    <col min="1" max="1" width="25.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="22" customWidth="1"/>
+    <col min="5" max="5" width="70.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="42.42578125" style="6" customWidth="1"/>
+    <col min="8" max="16384" width="8.7109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="21" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" s="21" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="61" t="s">
         <v>202</v>
       </c>
@@ -4241,7 +4241,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>222</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="116" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="135" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>222</v>
       </c>
@@ -4287,7 +4287,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>222</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>222</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="5" customFormat="1" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" s="5" customFormat="1" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>224</v>
       </c>
@@ -4356,7 +4356,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>224</v>
       </c>
@@ -4379,7 +4379,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" s="5" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>224</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="87.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="105.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>224</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>224</v>
       </c>
@@ -4448,7 +4448,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>224</v>
       </c>
@@ -4471,7 +4471,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="41" t="s">
         <v>224</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="72.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" ht="72.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>224</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>224</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>224</v>
       </c>
@@ -4563,7 +4563,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="5" customFormat="1" ht="145" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" s="5" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>224</v>
       </c>
@@ -4586,7 +4586,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>224</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" s="1" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>224</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>224</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="5" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" s="5" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="41" t="s">
         <v>224</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="7" customFormat="1" ht="233" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" s="7" customFormat="1" ht="241.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="49" t="s">
         <v>224</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="44.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="41" t="s">
         <v>224</v>
       </c>
@@ -4724,7 +4724,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="117" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" ht="121.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="49" t="s">
         <v>224</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="49" t="s">
         <v>224</v>
       </c>
@@ -4770,7 +4770,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="5" customFormat="1" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" s="5" customFormat="1" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="49" t="s">
         <v>235</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" ht="73.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="41" t="s">
         <v>235</v>
       </c>
@@ -4816,7 +4816,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="5" customFormat="1" ht="47" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" s="5" customFormat="1" ht="48" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>235</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="87" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" ht="105" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>235</v>
       </c>
@@ -4862,7 +4862,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>235</v>
       </c>
@@ -4885,7 +4885,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="41" t="s">
         <v>235</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="5" customFormat="1" ht="88" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" s="5" customFormat="1" ht="106.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="49" t="s">
         <v>235</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="1" customFormat="1" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" s="1" customFormat="1" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>235</v>
       </c>
@@ -4954,7 +4954,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="1" customFormat="1" ht="62" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" s="1" customFormat="1" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>235</v>
       </c>
@@ -4975,7 +4975,7 @@
       </c>
       <c r="G33" s="8"/>
     </row>
-    <row r="34" spans="1:7" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>235</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>235</v>
       </c>
@@ -5021,7 +5021,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="1" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>235</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="1" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>235</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="1" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" s="1" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>235</v>
       </c>
@@ -5090,7 +5090,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>235</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="1" customFormat="1" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" s="1" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="41" t="s">
         <v>235</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="5" customFormat="1" ht="44" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" s="5" customFormat="1" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>242</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>242</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>242</v>
       </c>
@@ -5205,7 +5205,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>242</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>242</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="3" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" s="3" customFormat="1" ht="150" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>242</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>242</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>242</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>242</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>242</v>
       </c>
@@ -5366,7 +5366,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="3" customFormat="1" ht="87" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>242</v>
       </c>
@@ -5389,7 +5389,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>242</v>
       </c>
@@ -5412,7 +5412,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>242</v>
       </c>
@@ -5435,7 +5435,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="3" customFormat="1" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" s="3" customFormat="1" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="41" t="s">
         <v>242</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="3" customFormat="1" ht="44" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" s="3" customFormat="1" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>242</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>242</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>242</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>242</v>
       </c>
@@ -5550,7 +5550,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="3" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" s="3" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>242</v>
       </c>
@@ -5573,7 +5573,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>242</v>
       </c>
@@ -5596,7 +5596,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="3" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" s="3" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="41" t="s">
         <v>242</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="3" customFormat="1" ht="58.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" s="3" customFormat="1" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>242</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="3" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" s="3" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="41" t="s">
         <v>242</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="3" customFormat="1" ht="58.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" s="3" customFormat="1" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>242</v>
       </c>
@@ -5688,7 +5688,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>242</v>
       </c>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="G65" s="6"/>
     </row>
-    <row r="66" spans="1:7" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>242</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>242</v>
       </c>
@@ -5753,7 +5753,7 @@
       </c>
       <c r="G67" s="6"/>
     </row>
-    <row r="68" spans="1:7" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>242</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>242</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>242</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="3" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" s="3" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="41" t="s">
         <v>242</v>
       </c>
@@ -5845,7 +5845,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="5" customFormat="1" ht="44" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" s="5" customFormat="1" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>247</v>
       </c>
@@ -5868,7 +5868,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="5" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" s="5" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>247</v>
       </c>
@@ -5891,7 +5891,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>247</v>
       </c>
@@ -5914,7 +5914,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>247</v>
       </c>
@@ -5937,7 +5937,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>247</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="41" t="s">
         <v>247</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="30" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="84" t="s">
         <v>247</v>
       </c>
@@ -6004,7 +6004,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="17" customFormat="1" ht="44" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" s="17" customFormat="1" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>247</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="17" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" s="17" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>247</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="81" spans="1:7" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>247</v>
       </c>
@@ -6073,7 +6073,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="82" spans="1:7" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>247</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:7" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>247</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="84" spans="1:7" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>247</v>
       </c>
@@ -6142,7 +6142,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="3" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>247</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="3" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" s="3" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>247</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="6" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>247</v>
       </c>
@@ -6211,7 +6211,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="6" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>247</v>
       </c>
@@ -6234,7 +6234,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="6" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>247</v>
       </c>
@@ -6257,7 +6257,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="6" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>247</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="6" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>247</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="6" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>247</v>
       </c>
@@ -6323,7 +6323,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="6" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>247</v>
       </c>
@@ -6346,7 +6346,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="6" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" s="6" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>247</v>
       </c>
@@ -6369,7 +6369,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="6" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>247</v>
       </c>
@@ -6392,7 +6392,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="6" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>247</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="6" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>247</v>
       </c>
@@ -6438,7 +6438,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="6" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" s="6" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>247</v>
       </c>
@@ -6461,7 +6461,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="6" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>247</v>
       </c>
@@ -6484,7 +6484,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="6" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>247</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="101" spans="1:7" s="6" customFormat="1" ht="159.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" s="6" customFormat="1" ht="165" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>247</v>
       </c>
@@ -6530,7 +6530,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="6" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" s="6" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>247</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="6" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" s="6" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>247</v>
       </c>
@@ -6576,7 +6576,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="104" spans="1:7" s="6" customFormat="1" ht="44" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:7" s="6" customFormat="1" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="41" t="s">
         <v>247</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="29.5" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" ht="45.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>247</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>247</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>247</v>
       </c>
@@ -6668,7 +6668,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>247</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>247</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:7" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="41" t="s">
         <v>247</v>
       </c>
@@ -6737,12 +6737,12 @@
         <v>117</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B111" s="2" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E112" s="2" t="s">
         <v>163</v>
       </c>
@@ -6753,17 +6753,17 @@
         <v>117</v>
       </c>
     </row>
-    <row r="113" spans="5:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="113" spans="5:5" ht="30" x14ac:dyDescent="0.25">
       <c r="E113" s="2" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E114" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="115" spans="5:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="115" spans="5:5" ht="30" x14ac:dyDescent="0.25">
       <c r="E115" s="2" t="s">
         <v>407</v>
       </c>
@@ -6779,22 +6779,22 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.54296875" style="26" customWidth="1"/>
+    <col min="1" max="1" width="39.5703125" style="26" customWidth="1"/>
     <col min="2" max="2" width="45" style="26" customWidth="1"/>
-    <col min="3" max="3" width="90.26953125" style="26" customWidth="1"/>
-    <col min="4" max="16384" width="8.7265625" style="26"/>
+    <col min="3" max="3" width="90.28515625" style="26" customWidth="1"/>
+    <col min="4" max="16384" width="8.7109375" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="25" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" s="25" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>63</v>
       </c>
@@ -6805,169 +6805,169 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="27"/>
       <c r="C2" s="27"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="27"/>
       <c r="C3" s="27"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="27"/>
       <c r="C4" s="27"/>
     </row>
-    <row r="5" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28"/>
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="28"/>
       <c r="C6" s="27"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="27"/>
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="27"/>
       <c r="B8" s="27"/>
       <c r="C8" s="27"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="27"/>
       <c r="B9" s="27"/>
       <c r="C9" s="27"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="27"/>
       <c r="B10" s="27"/>
       <c r="C10" s="27"/>
     </row>
-    <row r="11" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="27"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="27"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="27"/>
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="27"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="27"/>
       <c r="B17" s="27"/>
       <c r="C17" s="27"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="27"/>
       <c r="B18" s="27"/>
       <c r="C18" s="27"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="27"/>
       <c r="B19" s="27"/>
       <c r="C19" s="27"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="27"/>
       <c r="B20" s="27"/>
       <c r="C20" s="27"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="27"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="27"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="27"/>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="27"/>
       <c r="B24" s="27"/>
       <c r="C24" s="27"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="27"/>
       <c r="B25" s="27"/>
       <c r="C25" s="27"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="27"/>
       <c r="B26" s="27"/>
       <c r="C26" s="27"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="27"/>
       <c r="B27" s="27"/>
       <c r="C27" s="27"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="27"/>
       <c r="B28" s="27"/>
       <c r="C28" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C28"/>
+  <autoFilter ref="A1:C28" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.7265625" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>400</v>
       </c>
@@ -6979,18 +6979,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7172,14 +7172,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{298BA3D9-33B0-40A9-9AB5-FC7F987A206B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5BEC7D4B-B8DE-4F85-83C6-49A4118D2C30}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -7191,6 +7183,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{298BA3D9-33B0-40A9-9AB5-FC7F987A206B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
